--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-29.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-29.xlsx
@@ -540,47 +540,47 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
         <v>3</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -601,47 +601,47 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -662,7 +662,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
@@ -693,16 +693,16 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -718,22 +718,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -742,28 +742,28 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1755,52 +1755,52 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -1816,52 +1816,52 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>17</v>
-      </c>
-      <c r="J23" t="n">
-        <v>9</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -1882,17 +1882,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1901,28 +1901,28 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1962,28 +1962,28 @@
         </is>
       </c>
       <c r="H25" t="n">
+        <v>20</v>
+      </c>
+      <c r="I25" t="n">
+        <v>17</v>
+      </c>
+      <c r="J25" t="n">
         <v>9</v>
       </c>
-      <c r="I25" t="n">
-        <v>6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -2004,17 +2004,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2023,19 +2023,19 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
@@ -2065,17 +2065,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2084,28 +2084,28 @@
         </is>
       </c>
       <c r="H27" t="n">
+        <v>8</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
         <v>3</v>
       </c>
-      <c r="I27" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2267,28 +2267,28 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
         <v>4</v>
       </c>
-      <c r="K30" t="n">
-        <v>3</v>
-      </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -2309,17 +2309,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2328,28 +2328,28 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
         <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2389,28 +2389,28 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I32" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -2431,17 +2431,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2450,28 +2450,28 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -5450,7 +5450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -5472,37 +5472,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -5511,27 +5511,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
